--- a/openEAR-0.1.0 Kopie/SmileArchiv/Neue_Session_14:23_28_01_2023.xlsx
+++ b/openEAR-0.1.0 Kopie/SmileArchiv/Neue_Session_14:23_28_01_2023.xlsx
@@ -1,40 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -46,81 +62,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -129,10 +101,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -170,69 +142,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -256,54 +230,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -313,7 +286,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -322,7 +295,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -331,7 +304,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -339,10 +312,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -371,7 +344,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -384,13 +357,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -408,803 +380,1141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
         <v>18.728203</v>
       </c>
-      <c r="C1" t="n">
+      <c r="C1" s="2">
         <v>41.61226</v>
       </c>
-      <c r="D1" t="n">
+      <c r="D1" s="2">
         <v>44.154472</v>
       </c>
-      <c r="E1" t="n">
+      <c r="E1" s="2">
         <v>49.146624</v>
       </c>
-      <c r="F1" t="n">
+      <c r="F1" s="2">
         <v>50.712795</v>
       </c>
-      <c r="G1" t="n">
+      <c r="G1" s="2">
         <v>54.265097</v>
       </c>
-      <c r="H1" t="n">
+      <c r="H1" s="2">
         <v>60.175196</v>
       </c>
-      <c r="I1" t="n">
+      <c r="I1" s="2">
         <v>62.556859</v>
       </c>
-      <c r="J1" t="n">
+      <c r="J1" s="2">
         <v>64.934039</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>0.21</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2">
         <v>0.19</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="2">
         <v>0.12</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2">
         <v>0.04</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2">
         <v>0.15</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="2">
         <v>0.24</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="2">
         <v>0.11</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="2">
         <v>0.12</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="2">
         <v>0.34</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
         <v>0.03</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2">
         <v>0.14</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="2">
         <v>0.05</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2">
         <v>0.12</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2">
         <v>0.04</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3" s="2">
+        <v>0.07</v>
+      </c>
+      <c r="H3" s="2">
         <v>0.11</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="2">
         <v>0.11</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="2">
         <v>0.36</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
         <v>0.009191</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2">
         <v>0.0015</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2">
         <v>0.013614</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="2">
         <v>0.020802</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2">
         <v>0.001171</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="2">
         <v>0.011995</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="2">
         <v>0.001949</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="2">
         <v>0.002925</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="2">
         <v>0.004955</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
         <v>0.431448</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2">
         <v>0.390101</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2">
         <v>0.170059</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2">
         <v>0.223881</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2">
         <v>0.497536</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="2">
         <v>0.417243</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="2">
         <v>0.483541</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="2">
         <v>0.476667</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="2">
         <v>0.486921</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
         <v>0.11897</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2">
         <v>0.241745</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="2">
         <v>0.198264</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="2">
         <v>0.011234</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="2">
         <v>0.000117</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="2">
         <v>0.262464</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="2">
         <v>0.002033</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="2">
         <v>0.022804</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="2">
         <v>0.003868</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="n">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
         <v>0.025617</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2">
         <v>0.020357</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="2">
         <v>0.27298</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="2">
         <v>0.284101</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="2">
         <v>0.005487</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.009122999999999999</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G7" s="2">
+        <v>0.009123</v>
+      </c>
+      <c r="H7" s="2">
         <v>0.010401</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="2">
         <v>0.007713</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="2">
         <v>0.006029</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="n">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
         <v>0.012349</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2">
         <v>0.002947</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2">
         <v>0.03235</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="2">
         <v>0.062493</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="2">
         <v>0.003685</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="2">
         <v>0.013277</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="2">
         <v>0.00232</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="2">
         <v>0.006255</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="2">
         <v>0.024482</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="n">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2">
         <v>0.171174</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="2">
         <v>0.327721</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="2">
         <v>0.101156</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="2">
         <v>0.387417</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="2">
         <v>0.488386</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="2">
         <v>0.204219</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="2">
         <v>0.456491</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="2">
         <v>0.429367</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="2">
         <v>0.467327</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="n">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
         <v>0.231252</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="2">
         <v>0.01563</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="2">
         <v>0.211577</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="2">
         <v>0.010072</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="2">
         <v>0.003618</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="2">
         <v>0.08168</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="2">
         <v>0.043265</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="2">
         <v>0.054271</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="2">
         <v>0.006418</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="n">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
         <v>0.095246</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2">
         <v>0.316265</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="2">
         <v>0.560736</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="2">
         <v>0.259318</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="2">
         <v>0.070691</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="2">
         <v>0.227741</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="2">
         <v>0.050222</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="2">
         <v>0.160699</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="2">
         <v>0.165112</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" t="n">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2">
         <v>0.110981</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2">
         <v>0.077168</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="2">
         <v>0.165304</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="2">
         <v>0.040411</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="2">
         <v>0.756961</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="2">
         <v>0.30068</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="2">
         <v>0.519687</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="2">
         <v>0.52756</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" s="2">
         <v>0.510149</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="n">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
         <v>0.434046</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="2">
         <v>0.435231</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="2">
         <v>0.088397</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="2">
         <v>0.1455</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="2">
         <v>0.03377</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="2">
         <v>0.324597</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="2">
         <v>0.039555</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="2">
         <v>0.081964</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="2">
         <v>0.15687</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="n">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2">
         <v>0.027247</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="2">
         <v>0.017519</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="2">
         <v>0.020033</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="2">
         <v>0.016166</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="2">
         <v>0.015318</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="2">
         <v>0.014635</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="2">
         <v>0.015766</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="2">
         <v>0.017092</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" s="2">
         <v>0.019152</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="n">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2">
         <v>0.135772</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="2">
         <v>0.140123</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2">
         <v>0.156245</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="2">
         <v>0.020115</v>
       </c>
-      <c r="F15" t="n">
-        <v>0.06771000000000001</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="F15" s="2">
+        <v>0.06771</v>
+      </c>
+      <c r="G15" s="2">
         <v>0.111648</v>
       </c>
-      <c r="H15" t="n">
-        <v>0.07650899999999999</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="H15" s="2">
+        <v>0.076509</v>
+      </c>
+      <c r="I15" s="2">
         <v>0.159505</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15" s="2">
         <v>0.034032</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="n">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
         <v>0.196709</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="2">
         <v>0.013695</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2">
         <v>0.009285</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="2">
         <v>0.51849</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="2">
         <v>0.055549</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="2">
         <v>0.020699</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="2">
         <v>0.298261</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="2">
         <v>0.05318</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16" s="2">
         <v>0.114685</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" t="n">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2">
         <v>0.015799</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="2">
         <v>0.006212</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="2">
         <v>0.013979</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="2">
         <v>0.000915</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="2">
         <v>0.010659</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="2">
         <v>0.001318</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="2">
         <v>0.019765</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="2">
         <v>0.006885</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17" s="2">
         <v>0.005204</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>0</v>
-      </c>
-      <c r="B18" t="n">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2">
         <v>0.92413</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="2">
         <v>0.936824</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="2">
         <v>0.744908</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="2">
         <v>0.928244</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="2">
         <v>0.34111</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="2">
         <v>0.751455</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="2">
         <v>0.728776</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="2">
         <v>0.774434</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18" s="2">
         <v>0.165743</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>0</v>
-      </c>
-      <c r="B19" t="n">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2">
         <v>0.060071</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="2">
         <v>0.056964</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="2">
         <v>0.241112</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="2">
         <v>0.070841</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="2">
         <v>0.648231</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="2">
         <v>0.247227</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="2">
         <v>0.25146</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="2">
         <v>0.218681</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19" s="2">
         <v>0.829053</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="2">
         <v>0.06743775</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="2">
         <v>0.29886375</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="2">
         <v>0.06159575</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="2">
         <v>0.30633225</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="2">
         <v>0.09225925</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="2">
         <v>0.1257095</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="2">
         <v>0.04780175</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="2">
         <v>0.5911573631587611</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="2">
         <v>0.006152395</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="2">
         <v>0.306738115</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="2">
         <v>0.23492557</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="2">
         <v>0.179188181</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="A32" s="2">
         <v>0.272995739</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="2">
         <v>0.1240625</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>0.09113911290322579</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="2">
+        <v>0.0911391129032258</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="A35" s="2">
         <v>0.01341931955645161</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="A36" s="2">
         <v>0.315680224798387</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="2">
         <v>0.1046460191532258</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="A38" s="2">
         <v>0.15636596875</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="A39" s="2">
         <v>0.03427068649193549</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="A40" s="2">
         <v>0.3121370181451613</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+      <c r="A41" s="2">
         <v>0.06348114012096774</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="2">
         <v>0.2543594586693548</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="2">
         <v>0.1705645231854838</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="A44" s="2">
         <v>0.2220496118951613</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="2">
         <v>0.01756252923387097</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="A46" s="2">
         <v>0.07781354939516129</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+      <c r="A47" s="2">
         <v>0.2576504596774193</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="A48" s="2">
         <v>0.005334701612903226</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="A49" s="2">
         <v>0.8298612338709677</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+      <c r="A50" s="2">
         <v>0.164803970766129</v>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+      <c r="A51" s="2">
         <v>0.6389002472992089</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+      <c r="A52" s="2">
         <v>0.7007560576451553</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+      <c r="A53" s="2">
         <v>0.6698281524721821</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+      <c r="A54" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+      <c r="A55" s="2">
         <v>0.5797346345766129</v>
       </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>